--- a/API Kemendikbud.xlsx
+++ b/API Kemendikbud.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISBN\isbn-bopenerbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{288243C0-D932-441C-8CE7-972A39B9C0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBFD403-12E0-40AC-B0AC-343EED66D6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BBB814B-C118-43FF-9FF6-27560EB4EEF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="93">
   <si>
     <t>Parameter</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Permohonan ISBN Lepas</t>
   </si>
   <si>
-    <t>kategori</t>
-  </si>
-  <si>
     <t>sinopsis</t>
   </si>
   <si>
@@ -119,84 +116,6 @@
   </si>
   <si>
     <t>jumlah_halaman</t>
-  </si>
-  <si>
-    <t>media_terbitan</t>
-  </si>
-  <si>
-    <t>pilihan tersedia :
-"cetak", "pdf", "epub", "audio book/MP3"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Diisi dengan json. Contoh isi:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{ 
-   "penulis" : "Andre Wijaya", 
-   "penerjemah" : "Amir Hamzah",
-   "penyunting" : "Selly Sukoco"
- }</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lokasi File URL untuk dummy buku yang akan diberikan ISBN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max: 10MB</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lokasi File URL untuk cover buku yang akan diberikan ISBN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max: 2MB</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lokasi File URL untuk lampiran buku yang akan diberikan ISBN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max: 10MB</t>
-    </r>
   </si>
   <si>
     <t>seri</t>
@@ -238,9 +157,6 @@
   </si>
   <si>
     <t>Mengambil data profil penerbit berdasarkan ID Penerbit</t>
-  </si>
-  <si>
-    <t>id_permohonan</t>
   </si>
   <si>
     <t>Tracking Permohonan ISBN</t>
@@ -331,6 +247,65 @@
     <t>x-api-key didapatkan dari halaman penerbit, dengan melakukan registrasi API</t>
   </si>
   <si>
+    <t>noresi</t>
+  </si>
+  <si>
+    <t>jenis_kategori</t>
+  </si>
+  <si>
+    <t>jenis_media</t>
+  </si>
+  <si>
+    <t>jenis_kelompok</t>
+  </si>
+  <si>
+    <t>jenis_penelitian</t>
+  </si>
+  <si>
+    <t>jenis_pustaka</t>
+  </si>
+  <si>
+    <t>ineteger</t>
+  </si>
+  <si>
+    <t>1=anak, 2=dewasa, 3=semua umur</t>
+  </si>
+  <si>
+    <t>1=fiksi, 2=non fiksi</t>
+  </si>
+  <si>
+    <t>1=terjemahan, 2=non terjemahan</t>
+  </si>
+  <si>
+    <t>1=buku cetak, 2=pdf, 3=epub, 4=audio book, 5=audio visual</t>
+  </si>
+  <si>
+    <t>1=penelitian, 2=non penelitian</t>
+  </si>
+  <si>
+    <t>max 255 karakter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diisi dengan json array. Contoh isi:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ 
+   "penulis" : "Andre Wijaya", 
+   "penerjemah" : "Amir Hamzah",
+   "penyunting" : "Selly Sukoco"
+ }</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Keluaran Sukses
 </t>
@@ -344,10 +319,12 @@
         <scheme val="minor"/>
       </rPr>
       <t>{
-   "id_permohonan" : "2345AWBDRTY",
-   "mohon_date" : "2024-08-15",
-   "judul" : "XYZ Memang Asyik!",
-    .........</t>
+   "status" : 200,
+   "data" : {
+      "noresi" : "202409012354WBDRTY",
+      "mohon_date" : "2024-08-15 08:07:22",
+      "judul" : "XYZ Memang Asyik!",
+       .........</t>
     </r>
     <r>
       <rPr>
@@ -369,7 +346,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-   "status": "</t>
+      "status": "</t>
     </r>
     <r>
       <rPr>
@@ -380,7 +357,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>proses/diterima/masalah</t>
+      <t>permohonan/diterima/masalah</t>
     </r>
     <r>
       <rPr>
@@ -391,16 +368,321 @@
         <scheme val="minor"/>
       </rPr>
       <t>",
-   "masalah" : [
-    {
-       "isi" : "cover tidak ada",
-       "tanggal" : "2024-08-16",
-       "verified_by" : "Uzi Zulkarnaen"
-   }, {
-       "isi" : "halaman judul tidak mencantumkan kepengarangan yang sesuai",
-       "tanggal" : "2024-08-18",
-       "verified_by" : "Wulandari Sumekar"
-   }]
+      "masalah" : [
+       {
+          "isi" : "cover tidak ada",
+          "tanggal" : "2024-08-16",
+          "verified_by" : "Uzi Zulkarnaen"
+      }, {
+          "isi" : "halaman judul tidak mencantumkan kepengarangan yang sesuai",
+          "tanggal" : "2024-08-18",
+          "verified_by" : "Wulandari Sumekar"
+      }]
+   }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Permohonan ISBN Jilid</t>
+  </si>
+  <si>
+    <t>Dalam bentuk posting file, parameter file</t>
+  </si>
+  <si>
+    <t>Dalam bentuk posting file array, parameter file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">File cover buku yang akan diberikan ISBN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max: 2MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accepted extension: jpg, png, jpeg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">File lampiran buku yang akan diberikan ISBN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max: 10MB per file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accepted axtension: pdf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">File dummy buku yang akan diberikan ISBN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max: 10MB per file
+accepted extension: pdf, mp3, wav, mp4, epub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">File untuk dummy buku yang akan diberikan ISBN, setiap jilid, wajib mengisi 1 file. Jika dua jilid maka 2 file harus dikirmkan. 
+Index pada array menandakan urutan jilid. Dimulai angka 0, dst
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max: 10MB per file
+accepted extension: pdf, mp3, wav, mp4, epub</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">File cover buku yang akan diberikan ISBN, Jika dua jilid maka 2 file harus dikirmkan. 
+Index pada array menandakan urutan jilid. Dimulai angka 0, dst
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max: 2MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accepted extension: jpg, png, jpeg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">File  untuk lampiran buku yang akan diberikan ISBN, Jika dua jilid maka 2 file harus dikirmkan. 
+Index pada array menandakan urutan jilid. Dimulai angka 0, dst
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max: 10MB per file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accepted axtension: pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Link publikasi buku pada laman web penerbit. Index pada array menandakan urutan jilid. Dimulai angka 0, dst</t>
+  </si>
+  <si>
+    <t>Apabila buku cetak, maka diisi dengan tinggi buku. Contoh : 23 cm.
+Apabila audio book, maka diisi dengan durasi. Contoh : 1 Jam 20 menit
+Index pada array menandakan urutan jilid. Dimulai angka 0, dst</t>
+  </si>
+  <si>
+    <t>Index pada array menandakan urutan jilid. Dimulai angka 0, dst</t>
+  </si>
+  <si>
+    <t>Hanya diisi untuk buku cetak. Index pada array menandakan urutan jilid</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Keluaran Sukses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ 
+  "status" : 200,
+   "data" : {
+       "noresi" : "202409012354WBDRTY",
+       "mohon_date" : "2024-08-15 09:00:30",
+       "jenis_permohonan": "lepas",
+       "judul" : "XYZ Memang Asyik!",
+    .........data bibliografis lainnya.......
+       "status": "permohonan",
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Keluaran Sukses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ 
+  "status" : 200,
+   "data" : {
+       "noresi" : "202409012354WBDRTY",
+       "mohon_date" : "2024-08-15 09:00:30",
+       "jenis_permohonan": "jilid",
+       "status": "permohonan",
+       "jumlah_jilid" : 3,
+       "jilid" : [{
+            "judul" : "XYZ Memang Asyik!",  
+            "jilid_volume" : 1,
+            .........data bibliografis lainnya.......       
+        },{
+            "judul" : "XYZ Memang Asyik!",
+            "jilid_volume" : 2,
+            .........data bibliografis lainnya.......       
+        }, .....dst ]
 }</t>
     </r>
   </si>
@@ -468,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -537,11 +819,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -561,86 +1014,128 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,83 +1451,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54CCA2B-ADF5-4B42-AC27-E7B12CCED480}">
-  <dimension ref="B3:E66"/>
+  <dimension ref="B3:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="15.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="2:5" ht="183.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="B7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -1049,8 +1544,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>53</v>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1059,44 +1554,44 @@
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
@@ -1127,32 +1622,32 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
@@ -1169,7 +1664,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1183,7 +1678,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1197,7 +1692,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1211,7 +1706,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1225,36 +1720,36 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>55</v>
+      <c r="B28" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>57</v>
+      <c r="B29" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>40</v>
+      <c r="B30" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>4</v>
@@ -1263,12 +1758,12 @@
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>42</v>
+      <c r="B31" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -1277,42 +1772,36 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
+      <c r="B35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
+      <c r="B36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
@@ -1329,7 +1818,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1341,8 +1830,8 @@
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
-        <v>44</v>
+      <c r="B39" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>8</v>
@@ -1350,11 +1839,13 @@
       <c r="D39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="40" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
-        <v>45</v>
+      <c r="B40" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>21</v>
@@ -1363,80 +1854,82 @@
         <v>5</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>8</v>
+      <c r="C41" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
-        <v>26</v>
+      <c r="B44" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>27</v>
+      <c r="B45" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
-        <v>30</v>
+      <c r="B46" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>4</v>
@@ -1444,206 +1937,548 @@
       <c r="D46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="14" t="s">
-        <v>46</v>
+      <c r="E46" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
+      <c r="B53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="37"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="41"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B63" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B64" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B65" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B66" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B73" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" s="29" customFormat="1" ht="290.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+    </row>
+    <row r="79" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="28"/>
+      <c r="E79" s="30"/>
+    </row>
+    <row r="80" spans="2:5" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="28"/>
+      <c r="E80" s="30"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="35"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="16"/>
+      <c r="E82" s="37"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="37"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="2:5" ht="248.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" spans="2:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="32"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="33"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
+      <c r="D85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="41"/>
+    </row>
+    <row r="86" spans="2:5" ht="305.39999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
+    </row>
+    <row r="87" spans="2:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="10"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="10"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B12:E12"/>
+  <mergeCells count="29">
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B88:E88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>